--- a/public/documents/Biomas.xlsx
+++ b/public/documents/Biomas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niels\OneDrive\Escritorio\Universidad\Lenguajes_y_paradigmas\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niels\OneDrive\Escritorio\Universidad\Lenguajes_y_paradigmas\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EB391D-95A3-4D2A-AD1E-BCFECECD6D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC1A6FC-3B19-4D0A-8DE7-5CDB956ED3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60339709-F1C1-4501-BAA3-AE61BE4759C4}"/>
   </bookViews>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="49">
   <si>
     <t>Agua profunda</t>
   </si>
   <si>
-    <t>Agua Media</t>
-  </si>
-  <si>
     <t>Costa</t>
-  </si>
-  <si>
-    <t>Bajo Relieve</t>
-  </si>
-  <si>
-    <t>Casi Montañas</t>
   </si>
   <si>
     <t>Montañas</t>
@@ -577,243 +568,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7BC7B0-A0AC-4D0B-9583-1782196FE39C}">
-  <dimension ref="D2:O177"/>
+  <dimension ref="L2:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H152" workbookViewId="0">
-      <selection activeCell="Q158" sqref="Q158"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="2" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="4:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="4:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -821,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -835,13 +805,13 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -849,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -863,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -877,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -891,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -905,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -919,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -933,13 +903,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -947,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -961,2113 +931,2113 @@
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L28" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L29" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L30" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L32" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L33" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L34" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L35" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L36" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L37" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L38" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L39" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L40" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L41" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L42" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L43" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L44" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L45" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L46" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L47" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L48" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L49" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L50" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L51" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L52" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L53" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L54" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L55" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L56" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L57" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L58" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L59" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L60" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L61" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L62" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L63" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L64" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L65" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L66" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L67" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L68" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L69" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L70" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L71" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L72" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L73" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L74" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L75" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L76" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L77" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L78" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L79" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L80" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L81" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L82" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L83" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L84" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L85" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L86" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L87" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L88" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L89" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L90" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L91" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L92" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L93" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L94" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L95" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L96" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L97" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L98" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L99" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L100" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L101" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L102" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L103" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L104" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L105" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L106" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L107" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L108" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L109" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L110" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L111" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L112" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L113" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L114" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L115" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L116" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L117" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L118" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L119" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L120" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L121" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L122" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L123" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L124" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L125" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L126" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L127" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L128" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L129" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L130" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L131" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L132" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L133" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L134" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L135" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L136" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L137" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L138" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L139" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L140" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L141" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L142" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L143" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L144" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L145" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L146" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L147" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L148" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L149" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L150" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L151" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L152" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L153" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L154" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L155" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L156" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L157" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L158" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L159" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L160" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L161" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L162" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L163" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L164" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L165" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="166" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L166" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L167" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L168" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L169" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L170" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L171" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L172" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L173" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L174" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="175" spans="12:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L175" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L176" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="177" spans="12:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="L177" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
